--- a/Calliope_Kenya/Models/4Nodes_W-Coffee/Distributed_PowerPlant/Graph_inputs.xlsx
+++ b/Calliope_Kenya/Models/4Nodes_W-Coffee/Distributed_PowerPlant/Graph_inputs.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://feemit-my.sharepoint.com/personal/federica_inzoli_feem_it/Documents/REP/CIVICS Kenya/Energy_Model/Kenya_Operation_2015_2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Calliope_Kenya\Models\4Nodes_W-Coffee\Distributed_PowerPlant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{A03FBDC0-9C4B-4AAF-971C-D2A08CC68241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E52EBE37-2A3C-4363-AFA5-B3996AFE2150}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA8C897-64CA-4FDF-BCF0-BBE158C680CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Demand Technology" sheetId="1" r:id="rId1"/>
+    <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
     <sheet name="Nodes" sheetId="2" r:id="rId2"/>
-    <sheet name="PPs" sheetId="3" r:id="rId3"/>
-    <sheet name="Colors" sheetId="6" r:id="rId4"/>
-    <sheet name="Transmission" sheetId="4" r:id="rId5"/>
-    <sheet name="Date" sheetId="5" r:id="rId6"/>
+    <sheet name="Production Techs" sheetId="3" r:id="rId3"/>
+    <sheet name="Col_Name" sheetId="6" r:id="rId4"/>
+    <sheet name="imp-exp" sheetId="7" r:id="rId5"/>
+    <sheet name="Transmission" sheetId="4" r:id="rId6"/>
+    <sheet name="Date" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>Tech</t>
   </si>
@@ -101,9 +102,6 @@
     <t>Geothermal</t>
   </si>
   <si>
-    <t xml:space="preserve">Gast Turbine </t>
-  </si>
-  <si>
     <t>Heavy Fuel Oil</t>
   </si>
   <si>
@@ -128,9 +126,6 @@
     <t>hvdc_220</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
@@ -236,10 +231,34 @@
     <t>2015-01-01 00:00:00'</t>
   </si>
   <si>
-    <t>#800080</t>
-  </si>
-  <si>
     <t>Imports</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>Gas Turbine</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Mont Kenya Region</t>
+  </si>
+  <si>
+    <t>Nairobi Region</t>
+  </si>
+  <si>
+    <t>Coast Region</t>
+  </si>
+  <si>
+    <t>Western Region</t>
   </si>
   <si>
     <t>2015-12-31 23:00:00'</t>
@@ -301,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,7 +336,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -616,15 +635,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -633,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -652,49 +671,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C088BFEB-5357-40AB-A001-86E2ED77B251}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -704,88 +738,115 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F85C9D0-FA2D-4848-A36A-6ADC242E166E}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -796,19 +857,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
@@ -816,191 +877,246 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1009,34 +1125,69 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BACE794-9AA3-4644-BC5A-9E523606A510}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124241E6-30D3-4771-8593-7D44C13FEC16}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1045,37 +1196,73 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BACE794-9AA3-4644-BC5A-9E523606A510}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
